--- a/mainSecond/prophages.xlsx
+++ b/mainSecond/prophages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9793" uniqueCount="3616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9793" uniqueCount="3615">
   <si>
     <t>accessionNumbers</t>
   </si>
@@ -10859,9 +10859,6 @@
   </si>
   <si>
     <t>Stored Locally</t>
-  </si>
-  <si>
-    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -16295,7 +16292,7 @@
         <v>3614</v>
       </c>
       <c r="G220" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -22689,7 +22686,7 @@
         <v>3614</v>
       </c>
       <c r="G498" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="499" spans="1:7">
